--- a/templates/CF-150X60.xlsx
+++ b/templates/CF-150X60.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agustin.lago\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E132BBC-FD31-4903-BAED-E767746E96F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA03F374-09E7-4174-A41F-1B266CBCC5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17190" yWindow="570" windowWidth="21960" windowHeight="19965" xr2:uid="{816C2C49-8895-4BF8-8DCF-A2A5B042854F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{816C2C49-8895-4BF8-8DCF-A2A5B042854F}"/>
   </bookViews>
   <sheets>
     <sheet name="CF-150x60" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
   <si>
     <t>OBRA</t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>[c_comentario]</t>
+  </si>
+  <si>
+    <t>[inspeccion]</t>
   </si>
 </sst>
 </file>
@@ -636,6 +639,102 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -660,9 +759,6 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -683,99 +779,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1147,7 +1150,7 @@
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:J27"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1184,13 +1187,13 @@
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="62"/>
       <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -1202,14 +1205,14 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="33" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="33"/>
+      <c r="F4" s="64"/>
       <c r="G4" s="10" t="s">
         <v>49</v>
       </c>
@@ -1220,14 +1223,14 @@
       <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="34">
-        <v>1</v>
-      </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="33" t="s">
+      <c r="C5" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="24"/>
+      <c r="E5" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="33"/>
+      <c r="F5" s="64"/>
       <c r="G5" s="10" t="s">
         <v>39</v>
       </c>
@@ -1238,10 +1241,10 @@
       <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="32"/>
+      <c r="D6" s="24"/>
       <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1249,10 +1252,10 @@
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="35"/>
+      <c r="D7" s="66"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
@@ -1264,36 +1267,36 @@
     </row>
     <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="F9" s="37" t="s">
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="F9" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="39"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="70"/>
       <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="24"/>
+      <c r="C10" s="56"/>
       <c r="D10" s="9">
         <v>0.5</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="27"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="59"/>
       <c r="I10" s="9" t="s">
         <v>40</v>
       </c>
@@ -1304,21 +1307,21 @@
     </row>
     <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="24"/>
+      <c r="C11" s="56"/>
       <c r="D11" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="27"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="59"/>
       <c r="I11" s="9" t="s">
         <v>13</v>
       </c>
@@ -1333,58 +1336,58 @@
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="42"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="38"/>
       <c r="K13" s="7"/>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="45"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="41"/>
       <c r="K14" s="7"/>
     </row>
     <row r="15" spans="1:11" s="17" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="46" t="s">
+      <c r="D15" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="47" t="s">
+      <c r="E15" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="49"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="45"/>
       <c r="K15" s="16"/>
     </row>
     <row r="16" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
       <c r="E16" s="15" t="s">
         <v>20</v>
       </c>
@@ -1397,10 +1400,10 @@
       <c r="H16" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I16" s="47" t="s">
+      <c r="I16" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J16" s="49"/>
+      <c r="J16" s="45"/>
       <c r="K16" s="16"/>
     </row>
     <row r="17" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1426,10 +1429,10 @@
       <c r="H17" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="I17" s="50" t="s">
+      <c r="I17" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="J17" s="51"/>
+      <c r="J17" s="32"/>
       <c r="K17" s="7"/>
     </row>
     <row r="18" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1441,8 +1444,8 @@
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="51"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="32"/>
       <c r="K18" s="7"/>
     </row>
     <row r="19" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1454,8 +1457,8 @@
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="51"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="32"/>
       <c r="K19" s="7"/>
     </row>
     <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1467,8 +1470,8 @@
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="51"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="32"/>
       <c r="K20" s="7"/>
     </row>
     <row r="21" spans="1:11" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1477,114 +1480,114 @@
     </row>
     <row r="22" spans="1:11" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="57"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="49"/>
       <c r="K22" s="7"/>
     </row>
     <row r="23" spans="1:11" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="60"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="52"/>
       <c r="K23" s="7"/>
     </row>
     <row r="24" spans="1:11" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="60"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="52"/>
       <c r="K24" s="7"/>
     </row>
     <row r="25" spans="1:11" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="60"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="52"/>
       <c r="K25" s="7"/>
     </row>
     <row r="26" spans="1:11" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="60"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="52"/>
       <c r="K26" s="7"/>
     </row>
     <row r="27" spans="1:11" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="63"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="55"/>
       <c r="K27" s="7"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="64" t="s">
+      <c r="C28" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="66"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="27"/>
       <c r="K28" s="7"/>
     </row>
     <row r="29" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="68"/>
-      <c r="J29" s="69"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="30"/>
       <c r="K29" s="7"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -1597,58 +1600,58 @@
     </row>
     <row r="32" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="42"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="38"/>
       <c r="K32" s="7"/>
     </row>
     <row r="33" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="45"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="41"/>
       <c r="K33" s="7"/>
     </row>
     <row r="34" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
-      <c r="B34" s="46" t="s">
+      <c r="B34" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="46" t="s">
+      <c r="C34" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="46" t="s">
+      <c r="D34" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="47" t="s">
+      <c r="E34" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="49"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="45"/>
       <c r="K34" s="7"/>
     </row>
     <row r="35" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
       <c r="E35" s="15" t="s">
         <v>20</v>
       </c>
@@ -1661,10 +1664,10 @@
       <c r="H35" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="I35" s="47" t="s">
+      <c r="I35" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J35" s="49"/>
+      <c r="J35" s="45"/>
       <c r="K35" s="7"/>
     </row>
     <row r="36" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1690,10 +1693,10 @@
       <c r="H36" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="I36" s="50" t="s">
+      <c r="I36" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="J36" s="51"/>
+      <c r="J36" s="32"/>
       <c r="K36" s="7"/>
     </row>
     <row r="37" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1705,8 +1708,8 @@
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
       <c r="H37" s="10"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="51"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="32"/>
       <c r="K37" s="7"/>
     </row>
     <row r="38" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1718,8 +1721,8 @@
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
       <c r="H38" s="10"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="51"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="32"/>
       <c r="K38" s="7"/>
     </row>
     <row r="39" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1731,8 +1734,8 @@
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
       <c r="H39" s="10"/>
-      <c r="I39" s="50"/>
-      <c r="J39" s="51"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="32"/>
       <c r="K39" s="7"/>
     </row>
     <row r="40" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1741,101 +1744,101 @@
     </row>
     <row r="41" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
-      <c r="B41" s="52" t="s">
+      <c r="B41" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="70" t="s">
+      <c r="C41" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="32"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
       <c r="K41" s="7"/>
     </row>
     <row r="42" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
-      <c r="B42" s="53"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="32"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
       <c r="K42" s="7"/>
     </row>
     <row r="43" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
-      <c r="B43" s="53"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="32"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
       <c r="K43" s="7"/>
     </row>
     <row r="44" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
-      <c r="B44" s="53"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="32"/>
-      <c r="J44" s="32"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
       <c r="K44" s="7"/>
     </row>
     <row r="45" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
-      <c r="B45" s="53"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="32"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
       <c r="K45" s="7"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="5"/>
-      <c r="B46" s="32" t="s">
+      <c r="B46" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="64" t="s">
+      <c r="C46" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="D46" s="65"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="65"/>
-      <c r="H46" s="65"/>
-      <c r="I46" s="65"/>
-      <c r="J46" s="66"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="27"/>
       <c r="K46" s="7"/>
     </row>
     <row r="47" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
-      <c r="B47" s="32"/>
-      <c r="C47" s="67"/>
-      <c r="D47" s="68"/>
-      <c r="E47" s="68"/>
-      <c r="F47" s="68"/>
-      <c r="G47" s="68"/>
-      <c r="H47" s="68"/>
-      <c r="I47" s="68"/>
-      <c r="J47" s="69"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="30"/>
       <c r="K47" s="7"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
@@ -1857,34 +1860,6 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:J47"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="B41:B45"/>
-    <mergeCell ref="C41:J45"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:J29"/>
-    <mergeCell ref="B32:J33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="C22:J27"/>
-    <mergeCell ref="B13:J14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="I16:J16"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="C2:G2"/>
@@ -1898,6 +1873,34 @@
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B13:J14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="C22:J27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:J29"/>
+    <mergeCell ref="B32:J33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:J47"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="C41:J45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="65" orientation="portrait" r:id="rId1"/>
